--- a/biology/Médecine/Os_accessoire/Os_accessoire.xlsx
+++ b/biology/Médecine/Os_accessoire/Os_accessoire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un os accessoire est un os qui ne possède pas un rôle primordial. Lorsqu'il n'est présent que pour une partie des individus c'est un os surnuméraire
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Os ulnostyloideum
-L'os ulnostyloideum est un processus styloïde de l'ulna qui n'a pas fusionné avec le reste de l'ulna[4]. Il peut parfois être confondu avec une fracture par avulsion du processus styloïde[4],[5],[6].
+          <t>Os ulnostyloideum</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'os ulnostyloideum est un processus styloïde de l'ulna qui n'a pas fusionné avec le reste de l'ulna. Il peut parfois être confondu avec une fracture par avulsion du processus styloïde.
 </t>
         </is>
       </c>
@@ -543,7 +560,9 @@
           <t>Cheville</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les os accessoires de la cheville comprennent principalement :
 L'os subtibiale qui a une prévalence d'environ 1 % et est issu d'un centre d'ossification secondaire du tibia distal qui apparaît au cours de la première année de vie et qui, chez la plupart des gens, fusionne avec la diaphyse vers 15 ans chez la femme et vers 17 ans chez l'homme.
@@ -577,17 +596,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Os naviculaire accessoire
-Un os naviculaire accessoire se développe parfois devant la cheville vers l'intérieur du pied. Cet os peut être présent chez environ 2 à 21 % de la population générale et est généralement asymptomatique[10],[11],[12]. Lorsqu’il est symptomatique, une intervention chirurgicale peut être nécessaire.
-La classification Geist divise les os naviculaires accessoires en trois types[12] :
+          <t>Os naviculaire accessoire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Un os naviculaire accessoire se développe parfois devant la cheville vers l'intérieur du pied. Cet os peut être présent chez environ 2 à 21 % de la population générale et est généralement asymptomatique. Lorsqu’il est symptomatique, une intervention chirurgicale peut être nécessaire.
+La classification Geist divise les os naviculaires accessoires en trois types :
 Type 1 : os sésamoïde de 2 à 3 mmm dans le tendon distal du muscle tibial postérieur, généralement asymptomatique,
 Type 2 : osselet triangulaire ou en forme de cœur mesurant jusqu'à 12 mm, qui représente un centre d'ossification secondaire relié à la tubérosité naviculaire par un connecteur 1–2 mm de fibrocartilage ou de cartilage hyalin, des parties du tendon du muscle tibial postérieur s'insèrent parfois sur l'osselet accessoire, ce qui peut provoquer un dysfonctionnement et donc des symptômes,
-Type 3 : Un os corné présentant une tubérosité naviculaire médiale élargie, parfois symptomatique en raison de la formation d’oignons.
-Os trigone
-L'os trigone (ou astragale surnuméraire ou astragale accessoire) provient  de l'échec de la fusion du tubercule latéral du processus postérieur du talus . On estime qu'il est présent chez 7 à 25 % des adultes[9].
-Il peut être confondu avec une fracture par avulsion des tubercules latéral ou médial du processus postérieur du talus.
-Dans la plupart des cas, l'os trigone passe inaperçu, mais dans certaines blessures à la cheville, il peut rester coincé entre le talon et les os de la cheville provocant une inflammation des structures environnantes[13].
-Os accessoires moins courants</t>
+Type 3 : Un os corné présentant une tubérosité naviculaire médiale élargie, parfois symptomatique en raison de la formation d’oignons.</t>
         </is>
       </c>
     </row>
@@ -612,12 +631,20 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cou</t>
+          <t>Pied</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les nodules situés dans le bord postérieur du ligament de la nuque forment du tissu osseux chez environ 11 % des hommes et 3 à 5 % des femmes après leur 30 ans et peuvent être considérés comme des os sésamoïdes[14].
+          <t>Os trigone</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'os trigone (ou astragale surnuméraire ou astragale accessoire) provient  de l'échec de la fusion du tubercule latéral du processus postérieur du talus . On estime qu'il est présent chez 7 à 25 % des adultes.
+Il peut être confondu avec une fracture par avulsion des tubercules latéral ou médial du processus postérieur du talus.
+Dans la plupart des cas, l'os trigone passe inaperçu, mais dans certaines blessures à la cheville, il peut rester coincé entre le talon et les os de la cheville provocant une inflammation des structures environnantes.
 </t>
         </is>
       </c>
@@ -643,12 +670,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Épaule</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un os acromial se forme lorsque l'un de ses quatre centres d'ossification ne parvient pas à fusionner. Ces quatre centres d'ossification sont appelés de la pointe à la base pré-acromion, méso-acromion, méta-acromion et basi-acromion. Dans la plupart des cas, les trois premiers fusionnent entre 15 et 18 ans, tandis que la partie de base fusionne avec la colonne scapulaire à 12 ans. Un tel échec de fusion se produit dans 1 à 15 % des cas[15],[16]. Cela provoque rarement une douleur.
+          <t>Cou</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les nodules situés dans le bord postérieur du ligament de la nuque forment du tissu osseux chez environ 11 % des hommes et 3 à 5 % des femmes après leur 30 ans et peuvent être considérés comme des os sésamoïdes.
 </t>
         </is>
       </c>
@@ -674,12 +703,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Colonne vertébrale</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au niveau des processus articulaires inférieurs de la colonne lombaire chez environ 4 % des individus[17] peuvent se présenter des osselets d'Oppenheimer.
+          <t>Épaule</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un os acromial se forme lorsque l'un de ses quatre centres d'ossification ne parvient pas à fusionner. Ces quatre centres d'ossification sont appelés de la pointe à la base pré-acromion, méso-acromion, méta-acromion et basi-acromion. Dans la plupart des cas, les trois premiers fusionnent entre 15 et 18 ans, tandis que la partie de base fusionne avec la colonne scapulaire à 12 ans. Un tel échec de fusion se produit dans 1 à 15 % des cas,. Cela provoque rarement une douleur.
 </t>
         </is>
       </c>
@@ -705,12 +736,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Genou</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fabella est présente chez 10 à 30 % des individus[18].
+          <t>Colonne vertébrale</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au niveau des processus articulaires inférieurs de la colonne lombaire chez environ 4 % des individus peuvent se présenter des osselets d'Oppenheimer.
 </t>
         </is>
       </c>
@@ -736,12 +769,47 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Genou</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fabella est présente chez 10 à 30 % des individus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Os_accessoire</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Os_accessoire</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un os surnuméraire peut provoquer un diagnostic radiographique érroné de fracture[19].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un os surnuméraire peut provoquer un diagnostic radiographique érroné de fracture.
 </t>
         </is>
       </c>
